--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_290.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_290.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,358 +488,358 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
+          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:43.740000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.606060606060606</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:01:12.272131', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:min/C', 'D:maj']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(6.7, 10.32)]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(39.979523, 47.885918)]</t>
+          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>[('0:02:00', '0:02:02.700000'), ('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.52, 28.3)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.36, 6.46)]</t>
+          <t>[('0:00:25', '0:00:35.520000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:33.100000', '0:01:51.540000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (62.86, 68.74)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:03.820000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(59.8, 69.34)]</t>
+          <t>[('0:00:49.480000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:08.880000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08760545100584036</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G#:min/B', 'C#:maj', 'C#:maj/G#']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'E', 'E/2']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(8.68, 11.08)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(59.162887, 65.559465)]</t>
+          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:41.080000', '0:00:43.340000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0882943143812709</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['F', 'F/7', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.04, 110.76)]</t>
+          <t>[['G:maj', 'G:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(4.76, 118.78)]</t>
+          <t>[('0:00:15.300272', '0:00:18.887755')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:07.960000', '0:00:14.540000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -843,362 +848,320 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38), (43.68, 45.8)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(30.24, 38.5), (84.62, 91.74)]</t>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:08.300000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(113.14, 114.88)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1254237288135593</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb', 'F'], ['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D'], ['C', 'D', 'G']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(29.719863, 35.722222), (44.917324, 48.272607)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.236303, 12.162018), (17.014988, 20.892721)]</t>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84)]</t>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (30.24, 38.5)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.28, 103.4)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.78, 98.82)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
